--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2230,14 +2230,119 @@
           <t>게시판</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>20230308</t>
-        </is>
+      <c r="D80" t="n">
+        <v>20230308</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>主客顚倒</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>주객전도</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>설치</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>賣却</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>매각</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>釣而不網</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>조이불망: 낚시질은 해도 그물질은 하지 않는다는 뜻으로. 무슨 일에나 정도를 넘지 않는 훌륭한 인물의 태도를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>仔細</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>자세</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>20230310</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21시 01분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,14 +2335,3022 @@
           <t>자세</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>芒種</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>망중</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>망종</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>和睦</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>화해</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>臨機應變</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>임기응변</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>活路</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>활로</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>樹立</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>수립</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>拈華示衆</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>염화시중:말로 통하지 않고 마음에서 마음으로 전함</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>응시</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>酷毒</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>혹독</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>교정 : 틀어지거나 잘못된 것을 바로잡음</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>校庭</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>矯正: 바로잡을 교, 바를 정</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>投擲</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>투척</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>結論</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>토론</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>결론</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>現象</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>현상</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>유세</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>投擲</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>투척</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>소실</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>소거</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>乘客</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>승객</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>路線</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>노선</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>展開</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>전개</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>容恕</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>용서</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>忌憚</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>기탄</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>附和雷同</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>부화뇌동:소신 없이 그저 남이 하는 대로 따라감</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>容恕</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>용서</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>乘客</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>승객</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>財貨</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>질책</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>재화</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>惡寒</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>오한</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>기록</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>講義</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>토의</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>강의</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>探求</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>심화</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>탐구</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>立夏</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>입하</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>磨耗</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>마모</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>최촉</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>추대</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>磨耗</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>마모</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>磨耗</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>마모</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>決裂</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>결재</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>결렬</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>描虎類犬</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>포호빙하</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>묘호류견: 
+「호랑이를 그리려다 실패하여 개와 비슷하게 되었다」
+높은 뜻을 갖고 어떤 일을 성취하려다가 중도에 그쳐 다른 사람의 조소를 받는 것을 비유하는 말</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>全力投球</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>전력투구</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>持參</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>시대</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>지참</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>殺害</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>살해</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>삭막</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>유세</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>覺書</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>각서</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>旅行</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>방해</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>여행: 일이나 유람을 목적으로 다른 고장이나 외국에 가는 일</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>依存</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>의지</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>의존</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>認識</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>인식 : 사물을 분별하고 판단하여 앎</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>一毫</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>일호:극히 작은 정도</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>得隴望蜀</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>득롱망촉: 
+「농나라를 얻고 나니 촉나라를 갖고 싶다」
+인간의 욕심은 한이 없음을 비유해 이르는 말</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>시기</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>家鷄野雉</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>가계야치:아내를 소박하고 첩을 좋아한다 좋은 필적을 버리고 나쁜 필적을 좋아한다</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>21시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>시기</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>21시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>認識</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>인식 : 사물을 분별하고 판단하여 앎</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>21시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>依存</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>의재</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>의존</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>認識</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>인식 : 사물을 분별하고 판단하여 앎</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>依存</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>의지</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>의존</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>陽地</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>투지</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>양지</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>不眠</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>불안</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>불면</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>推薦</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>추천</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>提案</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>제안</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>提案</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>제안</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>推薦</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>추천</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>推薦</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>추천</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>提案</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>제안</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>提案</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>제안</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>提案</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>제안</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>21시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>閉蟄</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>폐칩</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>21시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>上漏下濕</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>상루하습 : 매우 가난한 집</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>過去</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>과시</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>과거</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>樂觀</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>낙관</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>현정</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>규정</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>客反爲主</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>객반위ㅜㅈ</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>객반위주:손님이 오히려 주인인 체하다</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>市場</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>시장</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>渦中</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>과중</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>와중</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>면리장침: 
+「솜 속에 바늘을 감추어 꽂는다」
+겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>宣揚</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>선양 : 명성이나 권위 따위를 널리 떨치게 함</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>알력:의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>改造</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>개선</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>개조: 고쳐 만들거나 바꿈</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>持病</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>지병</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>解除</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>해제</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>雲泥之差</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>운니지차:차이가 매우 심함</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>분노:분해 성내다</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>神出鬼沒</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>신출귀몰</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>解除</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>해재</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>해제</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>宣揚</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>선양 : 명성이나 권위 따위를 널리 떨치게 함</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>알력:의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>雲泥之差</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>운지지차</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>운니지차:차이가 매우 심함</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>면리장침: 
+「솜 속에 바늘을 감추어 꽂는다」
+겉으로는 부드러운 듯하나 속으로는 아주 흉악함을 이름</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>宣揚</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>선양 : 명성이나 권위 따위를 널리 떨치게 함</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>알력:의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>조세</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>聯作</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>연작</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>保險</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>보험</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>22시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>逃亡</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>실망</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>도망</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>22시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>和睦</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>22시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>반영</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>22시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>新設</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>신설</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>22시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>出給</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>출합</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>출급</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>22시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>恕罪</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>서죄</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>嚆矢</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>효시</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>根性</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>근성</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>指數</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>지수</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>22시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>渴而穿井</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>갈이천정:목이 말라야 비로소 샘을 판다</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>22시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>選手</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>선수</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>22시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>誓約書</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>서약서</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>回復</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>회수</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>회복</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>後悔莫及</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>후회막급: 이미 잘못된 뒤에 아무리 후회하여도 다시 어찌할 수가 없음</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>恕罪</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>서죄</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>聯作</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>연작</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>保險</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>근검</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>보험</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>嚆矢</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>효시</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>恕罪</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>서죄</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>誓約書</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>염세적</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>서약서</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>반영</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>根性</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>현생</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>근성</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>和睦</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>保險</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>근검</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>보험</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>根性</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>근성</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>和睦</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>保險</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>보험</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>根性</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>근검</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>근성</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>保險</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>보험</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>保險</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>보험</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>隱匿</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>은근</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>은닉: 숨을 은, 숨길 닉</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>敬歎</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>경탄:우러르며 감탄하다</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>天衣無縫</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>천의무봉 : 성격이나 언동 등이 매우 자연스러워 조금도 꾸민 데가 없음</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
         <is>
           <t>20230310</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>21시 01분</t>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,14 +2335,56 @@
           <t>자세</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>20230310</t>
-        </is>
+      <c r="D85" t="n">
+        <v>20230310</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>21시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>賣却</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>매각</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>復歸</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>복귀</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>20230311</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20시 33분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2377,14 +2377,833 @@
           <t>복귀</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>20230311</t>
-        </is>
+      <c r="D87" t="n">
+        <v>20230311</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>20시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>復歸</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>복귀</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>限死決斷</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>한사결단: 어떤 일에 목숨을 걸고 결단을 내림</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>賣却</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>매각</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>不偏不黨</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>불편부당: 어느 KSWHR으로 치우치지 않아 아주 공정감</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>復歸</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>귀감</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>복귀</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>회의</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>침소봉대:
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>民族</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>민방</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>민족</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>嚆矢</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>효시</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>正直</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>정도</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>정직</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>修己安人</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>단기안인</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>수기안인 : 자신의 인격을 닦아서 사람을 평안하게 하는 것</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>陰雨</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>호우</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>음우 : 몹시 음산하게 오는 비</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>講義</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>논의</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>강의</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>人口</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>입구</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>인구</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>結果</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>결실</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>결과</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>借用</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>사용</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>차용</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>創製</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>결재</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>창제</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>居安思危</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>거안사위</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>만진</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>매진</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>夏至</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>하지</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>금기</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>곤욕</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>夏至</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>금지</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>하지</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>21시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>매진</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>血稅</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>혈서</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>혈세</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>방자</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>釣而不網</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>조이불망: 낚시질은 해도 그물질은 하지 않는다는 뜻으로. 무슨 일에나 정도를 넘지 않는 훌륭한 인물의 태도를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>淸淨</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>청결</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>청정</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>沒落</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>몰락</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>방자</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>매진</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>夏至</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>효시</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>하지</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>방자</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>採用</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>채용</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>水滴穿石</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>수적천석 : 
+「물방울이 바위를 뚫는다」
+작은 노력이라도 끈기 있게 계속하면 큰 일을 이룰 수 있음</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>吮犢之情</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>연독지정: 자기의 자녀나 부하에 대한 사랑을 겸손하게 이르는 말</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
         </is>
       </c>
     </row>
